--- a/medicine/Médecine vétérinaire/Hipra/Hipra.xlsx
+++ b/medicine/Médecine vétérinaire/Hipra/Hipra.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Hipra entreprise pharmaceutique vétérinaire espagnole fondée en 1971.
@@ -513,9 +525,11 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2011, Hipra compte 18 filiales dans le monde et deux usines, une en Espagne, la seconde au Brésil[2]. Sa filiale française est installée à Nantes[3]. D'après Le Point Vétérinaire, ce groupe est leader de son marché dans la Péninsule Ibérique[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2011, Hipra compte 18 filiales dans le monde et deux usines, une en Espagne, la seconde au Brésil. Sa filiale française est installée à Nantes. D'après Le Point Vétérinaire, ce groupe est leader de son marché dans la Péninsule Ibérique.
 </t>
         </is>
       </c>
@@ -544,10 +558,12 @@
           <t>Produits</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce groupe commercialise des produits de santé vétérinaires uniquement destinés aux animaux de rente[2]
-Grâce à Hipra, l’Espagne espère lancer son vaccin anti-Covid-19 à la fin de l’année 2021, avec un feu vert européen en octobre[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce groupe commercialise des produits de santé vétérinaires uniquement destinés aux animaux de rente
+Grâce à Hipra, l’Espagne espère lancer son vaccin anti-Covid-19 à la fin de l’année 2021, avec un feu vert européen en octobre.
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Fermes à sang</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hipra est connu pour se fournir en hormones gonadotrophine chorionique équine dans les fermes à sang de la société Syntex, accusée de cruauté envers les juments poulinières (avortements à vif, absence de soins vétérinaires, ponctions sanguines mettant la vie en danger) : selon la journaliste de Libération Sarah Finger, malgré de multiples alertes, la multinationale n'a jamais répondu à ce sujet[5].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hipra est connu pour se fournir en hormones gonadotrophine chorionique équine dans les fermes à sang de la société Syntex, accusée de cruauté envers les juments poulinières (avortements à vif, absence de soins vétérinaires, ponctions sanguines mettant la vie en danger) : selon la journaliste de Libération Sarah Finger, malgré de multiples alertes, la multinationale n'a jamais répondu à ce sujet.
 </t>
         </is>
       </c>
